--- a/publisher/fileUpload/bulletin.xlsx
+++ b/publisher/fileUpload/bulletin.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
